--- a/M1/tarefa1.xlsx
+++ b/M1/tarefa1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>X</t>
   </si>
@@ -97,17 +97,23 @@
     <t>eu diria que R² eo o calculo que conta ate que ponto as 2 variaveis estao interligados</t>
   </si>
   <si>
-    <t>Nao percebi o que se requer aqui de este esxercicio tendo em conta que os pontos passem na mesma recta</t>
+    <t>Y_pred</t>
   </si>
   <si>
-    <t>Vou efectuar este exercicio depois de explicacao</t>
+    <t>Pergunta 3 - Qual a relação entre os resultados dessa coluna e o valor de R2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com o Coeficiente de correlação de 0,12 para os valores preditos (y_pred​), isso sugere que o modelo </t>
+  </si>
+  <si>
+    <t>de regressão linear utilizado para gerar esses valores explica apenas cerca de 12% da variação nos dados reais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -164,8 +170,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +188,12 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -185,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,6 +261,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,11 +340,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1015100323"/>
-        <c:axId val="842238006"/>
+        <c:axId val="1470312470"/>
+        <c:axId val="843395814"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1015100323"/>
+        <c:axId val="1470312470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,10 +396,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="842238006"/>
+        <c:crossAx val="843395814"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="842238006"/>
+        <c:axId val="843395814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +474,288 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1015100323"/>
+        <c:crossAx val="1470312470"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>X and Y</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Passo4!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Trend line for Y</c:name>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Passo4!$B$2:$B$27</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Passo4!$C$2:$C$27</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1301810800"/>
+        <c:axId val="1717709042"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1301810800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717709042"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1717709042"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1301810800"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -514,7 +820,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8311,7 +8643,8 @@
     <col customWidth="1" min="3" max="4" width="7.0"/>
     <col customWidth="1" min="5" max="5" width="6.63"/>
     <col customWidth="1" min="6" max="6" width="10.75"/>
-    <col customWidth="1" min="7" max="7" width="86.75"/>
+    <col customWidth="1" min="7" max="7" width="6.63"/>
+    <col customWidth="1" min="8" max="8" width="87.25"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
     <col customWidth="1" min="10" max="10" width="12.5"/>
   </cols>
@@ -8333,7 +8666,7 @@
       <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8357,8 +8690,9 @@
         <f t="shared" si="1"/>
         <v>96.2361</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>28</v>
+      <c r="G2" s="22">
+        <f t="shared" ref="G2:G27" si="4">(9.81*B2)+3.14</f>
+        <v>3.14</v>
       </c>
     </row>
     <row r="3">
@@ -8381,6 +8715,10 @@
         <f t="shared" si="3"/>
         <v>258.8881</v>
       </c>
+      <c r="G3" s="22">
+        <f t="shared" si="4"/>
+        <v>22.76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -8395,12 +8733,16 @@
         <v>89.48</v>
       </c>
       <c r="E4" s="17">
-        <f t="shared" ref="E4:F4" si="4">B4*B4</f>
+        <f t="shared" ref="E4:F4" si="5">B4*B4</f>
         <v>16</v>
       </c>
       <c r="F4" s="17">
+        <f t="shared" si="5"/>
+        <v>500.4169</v>
+      </c>
+      <c r="G4" s="22">
         <f t="shared" si="4"/>
-        <v>500.4169</v>
+        <v>42.38</v>
       </c>
       <c r="H4" s="19"/>
     </row>
@@ -8417,14 +8759,17 @@
         <v>171.9</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:F5" si="5">B5*B5</f>
+        <f t="shared" ref="E5:F5" si="6">B5*B5</f>
         <v>36</v>
       </c>
       <c r="F5" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>820.8225</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="22">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -8439,14 +8784,17 @@
         <v>279.44</v>
       </c>
       <c r="E6" s="17">
-        <f t="shared" ref="E6:F6" si="6">B6*B6</f>
+        <f t="shared" ref="E6:F6" si="7">B6*B6</f>
         <v>64</v>
       </c>
       <c r="F6" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1220.1049</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="22">
+        <f t="shared" si="4"/>
+        <v>81.62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -8461,12 +8809,16 @@
         <v>412.1</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:F7" si="7">B7*B7</f>
+        <f t="shared" ref="E7:F7" si="8">B7*B7</f>
         <v>100</v>
       </c>
       <c r="F7" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1698.2641</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="4"/>
+        <v>101.24</v>
       </c>
     </row>
     <row r="8">
@@ -8482,12 +8834,16 @@
         <v>569.88</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" ref="E8:F8" si="8">B8*B8</f>
+        <f t="shared" ref="E8:F8" si="9">B8*B8</f>
         <v>144</v>
       </c>
       <c r="F8" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2255.3001</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="4"/>
+        <v>120.86</v>
       </c>
     </row>
     <row r="9">
@@ -8503,12 +8859,16 @@
         <v>752.78</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" ref="E9:F9" si="9">B9*B9</f>
+        <f t="shared" ref="E9:F9" si="10">B9*B9</f>
         <v>196</v>
       </c>
       <c r="F9" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2891.2129</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="4"/>
+        <v>140.48</v>
       </c>
     </row>
     <row r="10">
@@ -8524,12 +8884,16 @@
         <v>960.8</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" ref="E10:F10" si="10">B10*B10</f>
+        <f t="shared" ref="E10:F10" si="11">B10*B10</f>
         <v>256</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3606.0025</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="4"/>
+        <v>160.1</v>
       </c>
     </row>
     <row r="11">
@@ -8545,12 +8909,16 @@
         <v>1193.94</v>
       </c>
       <c r="E11" s="17">
-        <f t="shared" ref="E11:F11" si="11">B11*B11</f>
+        <f t="shared" ref="E11:F11" si="12">B11*B11</f>
         <v>324</v>
       </c>
       <c r="F11" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4399.6689</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="4"/>
+        <v>179.72</v>
       </c>
     </row>
     <row r="12">
@@ -8566,12 +8934,16 @@
         <v>1452.2</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" ref="E12:F12" si="12">B12*B12</f>
+        <f t="shared" ref="E12:F12" si="13">B12*B12</f>
         <v>400</v>
       </c>
       <c r="F12" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5272.2121</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="4"/>
+        <v>199.34</v>
       </c>
     </row>
     <row r="13">
@@ -8587,12 +8959,16 @@
         <v>1735.58</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" ref="E13:F13" si="13">B13*B13</f>
+        <f t="shared" ref="E13:F13" si="14">B13*B13</f>
         <v>484</v>
       </c>
       <c r="F13" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6223.6321</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="4"/>
+        <v>218.96</v>
       </c>
     </row>
     <row r="14">
@@ -8608,12 +8984,16 @@
         <v>2044.08</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" ref="E14:F14" si="14">B14*B14</f>
+        <f t="shared" ref="E14:F14" si="15">B14*B14</f>
         <v>576</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7253.9289</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="4"/>
+        <v>238.58</v>
       </c>
     </row>
     <row r="15">
@@ -8629,12 +9009,16 @@
         <v>2377.7</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" ref="E15:F15" si="15">B15*B15</f>
+        <f t="shared" ref="E15:F15" si="16">B15*B15</f>
         <v>676</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8363.1025</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="4"/>
+        <v>258.2</v>
       </c>
     </row>
     <row r="16">
@@ -8650,12 +9034,16 @@
         <v>2736.44</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:F16" si="16">B16*B16</f>
+        <f t="shared" ref="E16:F16" si="17">B16*B16</f>
         <v>784</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9551.1529</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="4"/>
+        <v>277.82</v>
       </c>
     </row>
     <row r="17">
@@ -8671,12 +9059,16 @@
         <v>3120.3</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" ref="E17:F17" si="17">B17*B17</f>
+        <f t="shared" ref="E17:F17" si="18">B17*B17</f>
         <v>900</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10818.0801</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="4"/>
+        <v>297.44</v>
       </c>
     </row>
     <row r="18">
@@ -8692,12 +9084,16 @@
         <v>3529.28</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" ref="E18:F18" si="18">B18*B18</f>
+        <f t="shared" ref="E18:F18" si="19">B18*B18</f>
         <v>1024</v>
       </c>
       <c r="F18" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12163.8841</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="4"/>
+        <v>317.06</v>
       </c>
     </row>
     <row r="19">
@@ -8713,12 +9109,16 @@
         <v>3963.38</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" ref="E19:F19" si="19">B19*B19</f>
+        <f t="shared" ref="E19:F19" si="20">B19*B19</f>
         <v>1156</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13588.5649</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="4"/>
+        <v>336.68</v>
       </c>
     </row>
     <row r="20">
@@ -8734,12 +9134,19 @@
         <v>4422.6</v>
       </c>
       <c r="E20" s="17">
-        <f t="shared" ref="E20:F20" si="20">B20*B20</f>
+        <f t="shared" ref="E20:F20" si="21">B20*B20</f>
         <v>1296</v>
       </c>
       <c r="F20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15092.1225</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="4"/>
+        <v>356.3</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -8755,12 +9162,19 @@
         <v>4906.94</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" ref="E21:F21" si="21">B21*B21</f>
+        <f t="shared" ref="E21:F21" si="22">B21*B21</f>
         <v>1444</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>16674.5569</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>375.92</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -8776,12 +9190,19 @@
         <v>5416.4</v>
       </c>
       <c r="E22" s="17">
-        <f t="shared" ref="E22:F22" si="22">B22*B22</f>
+        <f t="shared" ref="E22:F22" si="23">B22*B22</f>
         <v>1600</v>
       </c>
       <c r="F22" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18335.8681</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="4"/>
+        <v>395.54</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -8797,12 +9218,16 @@
         <v>5950.98</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" ref="E23:F23" si="23">B23*B23</f>
+        <f t="shared" ref="E23:F23" si="24">B23*B23</f>
         <v>1764</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20076.0561</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="4"/>
+        <v>415.16</v>
       </c>
     </row>
     <row r="24">
@@ -8818,12 +9243,16 @@
         <v>6510.68</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" ref="E24:F24" si="24">B24*B24</f>
+        <f t="shared" ref="E24:F24" si="25">B24*B24</f>
         <v>1936</v>
       </c>
       <c r="F24" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21895.1209</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="4"/>
+        <v>434.78</v>
       </c>
     </row>
     <row r="25">
@@ -8839,12 +9268,16 @@
         <v>7095.5</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" ref="E25:F25" si="25">B25*B25</f>
+        <f t="shared" ref="E25:F25" si="26">B25*B25</f>
         <v>2116</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>23793.0625</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>454.4</v>
       </c>
     </row>
     <row r="26">
@@ -8860,12 +9293,16 @@
         <v>7705.44</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" ref="E26:F26" si="26">B26*B26</f>
+        <f t="shared" ref="E26:F26" si="27">B26*B26</f>
         <v>2304</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>25769.8809</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="4"/>
+        <v>474.02</v>
       </c>
     </row>
     <row r="27">
@@ -8881,12 +9318,16 @@
         <v>8340.5</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" ref="E27:F27" si="27">B27*B27</f>
+        <f t="shared" ref="E27:F27" si="28">B27*B27</f>
         <v>2500</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>27825.5761</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="4"/>
+        <v>493.64</v>
       </c>
     </row>
     <row r="28">
@@ -8894,24 +9335,28 @@
         <v>18</v>
       </c>
       <c r="B28" s="16">
-        <f t="shared" ref="B28:F28" si="28">SUM(B2:B27)</f>
+        <f t="shared" ref="B28:G28" si="29">SUM(B2:B27)</f>
         <v>650</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2296.06</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>75770.5</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>22100</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>260443.7186</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="29"/>
+        <v>6458.14</v>
       </c>
     </row>
     <row r="29">
@@ -8919,24 +9364,28 @@
         <v>19</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" ref="B29:F29" si="29">MEDIAN(B2:B27)</f>
+        <f t="shared" ref="B29:G29" si="30">MEDIAN(B2:B27)</f>
         <v>25</v>
       </c>
       <c r="C29" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>88.31</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2210.89</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>626</v>
       </c>
       <c r="F29" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7808.5157</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="30"/>
+        <v>248.39</v>
       </c>
     </row>
     <row r="30">
